--- a/Final-Project-Presentations/Final Project Evaluation Criteria.xlsx
+++ b/Final-Project-Presentations/Final Project Evaluation Criteria.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines" sheetId="3" r:id="rId1"/>
@@ -143,9 +143,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="29">
@@ -216,7 +216,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,11 +229,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,6 +277,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,14 +313,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -292,46 +321,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,14 +337,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,7 +392,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,7 +452,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,7 +470,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,55 +542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,85 +560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,16 +602,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,13 +640,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,30 +660,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,16 +678,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -719,130 +719,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1226,8 +1226,8 @@
   <sheetPr/>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1393,10 +1393,10 @@
   <sheetPr/>
   <dimension ref="A1:XEV16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15"/>

--- a/Final-Project-Presentations/Final Project Evaluation Criteria.xlsx
+++ b/Final-Project-Presentations/Final Project Evaluation Criteria.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Guidelines For Final Project Presentation</t>
   </si>
@@ -89,10 +89,7 @@
     <t>Demonstrate Running Application and test REST APIs in Browser or Postman                                                                   (5 points)</t>
   </si>
   <si>
-    <t>Implement API changes and demonstrate new functionality as directed   (5 points)</t>
-  </si>
-  <si>
-    <t>Technical Questions from SMEs/Trainer                                     (5points)</t>
+    <t>Technical Questions from SMEs/Trainer                                     (10 points)</t>
   </si>
   <si>
     <t>Final Score (out of 25 points)</t>
@@ -142,10 +139,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="29">
@@ -215,8 +212,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,15 +228,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,23 +257,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,6 +280,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -298,15 +295,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -322,7 +320,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,7 +335,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,9 +349,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,7 +389,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,49 +473,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,7 +497,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,97 +563,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,21 +598,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -627,6 +609,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,6 +658,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -687,27 +695,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -719,130 +716,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -867,6 +864,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -887,9 +887,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1391,12 +1388,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XEV16"/>
+  <dimension ref="A1:XEU16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15"/>
@@ -1407,15 +1404,15 @@
     <col min="4" max="4" width="28.1428571428571" style="3" customWidth="1"/>
     <col min="5" max="5" width="21.7142857142857" style="3" customWidth="1"/>
     <col min="6" max="6" width="29.8571428571429" style="3" customWidth="1"/>
-    <col min="7" max="8" width="21.7142857142857" style="3" customWidth="1"/>
-    <col min="9" max="9" width="24.7142857142857" style="3" customWidth="1"/>
-    <col min="10" max="994" width="8.71428571428571" style="3"/>
-    <col min="995" max="1021" width="11.5238095238095" style="4" customWidth="1"/>
-    <col min="1022" max="16376" width="8.72380952380952" style="4"/>
-    <col min="16377" max="16384" width="8.72380952380952" style="5"/>
+    <col min="7" max="7" width="21.7142857142857" style="3" customWidth="1"/>
+    <col min="8" max="8" width="24.7142857142857" style="3" customWidth="1"/>
+    <col min="9" max="993" width="8.71428571428571" style="3"/>
+    <col min="994" max="1020" width="11.5238095238095" style="4" customWidth="1"/>
+    <col min="1021" max="16375" width="8.72380952380952" style="4"/>
+    <col min="16376" max="16384" width="8.72380952380952" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="51" spans="1:1021">
+    <row r="1" s="1" customFormat="1" ht="51" spans="1:1020">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -1434,15 +1431,13 @@
       <c r="F1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>26</v>
-      </c>
+      <c r="ALF1" s="4"/>
       <c r="ALG1" s="4"/>
       <c r="ALH1" s="4"/>
       <c r="ALI1" s="4"/>
@@ -1469,24 +1464,23 @@
       <c r="AMD1" s="4"/>
       <c r="AME1" s="4"/>
       <c r="AMF1" s="4"/>
-      <c r="AMG1" s="4"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:16376">
-      <c r="A2" s="10">
+    <row r="2" s="2" customFormat="1" spans="1:16375">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="12">
         <v>46132204</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>27</v>
+      <c r="C2" s="12" t="s">
+        <v>26</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
@@ -2471,7 +2465,7 @@
       <c r="ALC2" s="18"/>
       <c r="ALD2" s="18"/>
       <c r="ALE2" s="18"/>
-      <c r="ALF2" s="18"/>
+      <c r="ALF2" s="19"/>
       <c r="ALG2" s="19"/>
       <c r="ALH2" s="19"/>
       <c r="ALI2" s="19"/>
@@ -17853,61 +17847,60 @@
       <c r="XES2" s="19"/>
       <c r="XET2" s="19"/>
       <c r="XEU2" s="19"/>
-      <c r="XEV2" s="19"/>
     </row>
     <row r="8" ht="25.5" spans="2:4">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" ht="51" spans="2:4">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" ht="51" spans="2:4">
-      <c r="B12" s="13" t="s">
-        <v>28</v>
+      <c r="B12" s="14" t="s">
+        <v>27</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" ht="63.75" spans="2:4">
-      <c r="B14" s="13" t="s">
-        <v>31</v>
+      <c r="B14" s="14" t="s">
+        <v>30</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" ht="38.25" spans="2:4">
-      <c r="B16" s="13" t="s">
-        <v>31</v>
+      <c r="B16" s="14" t="s">
+        <v>30</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>38</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
